--- a/Study for a better life.xlsx
+++ b/Study for a better life.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Desktop\rebirth\Mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrause\Documents\CodeMe\Mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3986A491-8F0D-4131-B19A-DB450A278F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917CFAB-3B18-4EC0-AEF5-3E2F8CA9426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{EB88ED60-0DE4-4C62-ACAE-70375AA20070}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB88ED60-0DE4-4C62-ACAE-70375AA20070}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Terms" sheetId="1" r:id="rId1"/>
     <sheet name="Regression" sheetId="4" r:id="rId2"/>
-    <sheet name="Jobs" sheetId="3" r:id="rId3"/>
-    <sheet name="Calculations" sheetId="2" r:id="rId4"/>
+    <sheet name="DataGuy" sheetId="5" r:id="rId3"/>
+    <sheet name="Jobs" sheetId="3" r:id="rId4"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="256">
   <si>
     <t>This is to put together working financial formulas</t>
   </si>
@@ -674,9 +672,6 @@
     <t>dependent variable</t>
   </si>
   <si>
-    <t>step 1:</t>
-  </si>
-  <si>
     <t>establish if there is a relationship between variables - Need to have significant association between the 2</t>
   </si>
   <si>
@@ -686,10 +681,130 @@
     <t>eyeball method to view for correlation</t>
   </si>
   <si>
-    <t>a numerical measure woul be the correlation coefficient</t>
-  </si>
-  <si>
     <t>this is a value between -1 and 1</t>
+  </si>
+  <si>
+    <t>the closer to a 1 indicates a stronger correlation</t>
+  </si>
+  <si>
+    <t>the closer to 0 indicates no association</t>
+  </si>
+  <si>
+    <t>the closer to a -1 indicates a stronger inverse correlation</t>
+  </si>
+  <si>
+    <t>the square of the correlation coefficient is useful in linear regression doe to this value representing the fraction of the variation in one variable that may be explained by the other variable</t>
+  </si>
+  <si>
+    <t>for example if there is a correlation of .8 between 2 variables a regression model will be able to account for 64% of the variability of data</t>
+  </si>
+  <si>
+    <t>thid directly relates to the regression line Y =a +bX for any 2 variable where b = r Sy/Sx</t>
+  </si>
+  <si>
+    <t>a numerical measure would be the correlation coefficient</t>
+  </si>
+  <si>
+    <t>Data Analyst Job Function:</t>
+  </si>
+  <si>
+    <t>competitive compensation analysis</t>
+  </si>
+  <si>
+    <t>retrospective</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>prospective</t>
+  </si>
+  <si>
+    <t>competitive performance analysis</t>
+  </si>
+  <si>
+    <t>pay for performance assessments</t>
+  </si>
+  <si>
+    <t>equity dilution</t>
+  </si>
+  <si>
+    <t>overhang</t>
+  </si>
+  <si>
+    <t>specific types of analysis:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>most common method for fitting a regression line is method of least squares</t>
+  </si>
+  <si>
+    <t>best fitting line for the observed data by minimizing the sum of the squares of the vertical deviations from each data point to the lines</t>
+  </si>
+  <si>
+    <t>To view data use a scatter plot to view outliers and influential observations</t>
+  </si>
+  <si>
+    <t>after regression has been computed a point which lies far from the line is known as an outlier</t>
+  </si>
+  <si>
+    <t>impact of outliers should be investigated</t>
+  </si>
+  <si>
+    <t>once model has been fit review residuals residual plot can amplify outliers</t>
+  </si>
+  <si>
+    <t>a lurking variable exists when the relationship between 2 variables is significantly affected by the presence of a third variable which has not been included in the modeling effort</t>
+  </si>
+  <si>
+    <t>whenever a linear regression model is fit to a group of data the range should be carefully observed. Attempting to predict values outside of the range is often incorrect.</t>
+  </si>
+  <si>
+    <t>https://online.stat.psu.edu/stat501/lesson/1</t>
+  </si>
+  <si>
+    <t>simple regression</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>predictor</t>
+  </si>
+  <si>
+    <t>explanatory</t>
+  </si>
+  <si>
+    <t>independent variable</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>common names</t>
+  </si>
+  <si>
+    <t>least squares regression line</t>
+  </si>
+  <si>
+    <t>least squares line</t>
+  </si>
+  <si>
+    <t>estimated regression equation</t>
+  </si>
+  <si>
+    <t>Multivariate Regression</t>
+  </si>
+  <si>
+    <t>https://stats.oarc.ucla.edu/stata/dae/multivariate-regression-analysis/</t>
   </si>
 </sst>
 </file>
@@ -700,10 +815,10 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +854,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -768,17 +891,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1097,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBDEF2-1E27-4684-A245-7E36FC854608}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,32 +1612,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593B0400-2115-4C6C-9C99-C7CD94A64CC2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
@@ -1521,7 +1650,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>209</v>
       </c>
@@ -1529,30 +1658,168 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1561,6 +1828,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CA2D6-07D9-4B87-979F-B37066FF26B3}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5361A2-09E2-481D-B49F-8CE030DE32B3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1600,7 +1939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFE5C85-FC39-4842-8718-96B035A767FE}">
   <dimension ref="B3:U66"/>
   <sheetViews>
@@ -1744,7 +2083,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
-        <f t="shared" ref="L9:L16" si="0">L8+1</f>
+        <f t="shared" ref="L9:L10" si="0">L8+1</f>
         <v>3</v>
       </c>
       <c r="M9" s="1">
@@ -1861,7 +2200,7 @@
         <v>26666.666666666668</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" ref="G12:G17" si="5">($C$6-$C$7)/$C$8</f>
+        <f t="shared" ref="G12:G15" si="5">($C$6-$C$7)/$C$8</f>
         <v>20000</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1880,7 +2219,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <f t="shared" ref="B13:B16" si="6">B12+1</f>
+        <f t="shared" ref="B13:B15" si="6">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="6">

--- a/Study for a better life.xlsx
+++ b/Study for a better life.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrause\Documents\CodeMe\Mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Desktop\rebirth\Mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917CFAB-3B18-4EC0-AEF5-3E2F8CA9426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F672668-1A25-466E-9BDA-F09E2402EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB88ED60-0DE4-4C62-ACAE-70375AA20070}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{EB88ED60-0DE4-4C62-ACAE-70375AA20070}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Terms" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Jobs" sheetId="3" r:id="rId4"/>
     <sheet name="Calculations" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="284">
   <si>
     <t>This is to put together working financial formulas</t>
   </si>
@@ -805,6 +808,90 @@
   </si>
   <si>
     <t>https://stats.oarc.ucla.edu/stata/dae/multivariate-regression-analysis/</t>
+  </si>
+  <si>
+    <t>Data Acquisistion</t>
+  </si>
+  <si>
+    <t>Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Data Review</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Interpret varied data from multiple sources</t>
+  </si>
+  <si>
+    <t>Marketing and research initiatives</t>
+  </si>
+  <si>
+    <t>client support</t>
+  </si>
+  <si>
+    <t>market strategy</t>
+  </si>
+  <si>
+    <t>technical resource</t>
+  </si>
+  <si>
+    <t>maintain databases</t>
+  </si>
+  <si>
+    <t>pipelines</t>
+  </si>
+  <si>
+    <t>data infrastructure</t>
+  </si>
+  <si>
+    <t>Matterport</t>
+  </si>
+  <si>
+    <t>spatial data</t>
+  </si>
+  <si>
+    <t>Evaluation of existing data sources and development of action plan for delivering reliable data to drive insights for analysis at ATI</t>
+  </si>
+  <si>
+    <t>Gathering data and conducting analyses in support of client deliverables, including, but not limited to, competitive compensation analyses (retrospective, current, and prospective analyses for corporate executives and board directors), competitive performance analyses, equity dilution and overhang analyses, and pay-for-performance assessments</t>
+  </si>
+  <si>
+    <t>Developing tools, templates, and analytical models for ATI as needed to support consistency and quality to assist the review process</t>
+  </si>
+  <si>
+    <t>Collaborating with subject matter experts to develop and publish intellectual capital and thought leadership pieces in support of ATI initiatives</t>
+  </si>
+  <si>
+    <t>Supporting marketing and business development through research on campaigns and prospects, mining data for thought leadership, and tracking and communicating market trends to internal staff</t>
+  </si>
+  <si>
+    <t>Drafting detailed client reports and deliverables</t>
+  </si>
+  <si>
+    <t>Participating in internal client team calls</t>
+  </si>
+  <si>
+    <t>Supporting firm quality standards through detailed fact-checking, quality control, and rigorous adherence to methodological standards</t>
+  </si>
+  <si>
+    <t>In an interview Jeff Moore stated that residential and commercial were about 50/50 however which side has a bigger profit margin?</t>
+  </si>
+  <si>
+    <t>interviewer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brittany-deboer-77a29536/</t>
+  </si>
+  <si>
+    <t>https://www.randrmagonline.com/search?exclude_datatypes%5B%5D=video&amp;exclude_datatypes%5B%5D=file&amp;page=1&amp;q=ati&amp;sort=date</t>
+  </si>
+  <si>
+    <t>need to get labor stats</t>
+  </si>
+  <si>
+    <t>state of restoration or something</t>
   </si>
 </sst>
 </file>
@@ -891,7 +978,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -903,6 +990,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1221,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBDEF2-1E27-4684-A245-7E36FC854608}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1829,68 +1919,177 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CA2D6-07D9-4B87-979F-B37066FF26B3}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="116" style="1" customWidth="1"/>
+    <col min="10" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I14" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="I15" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>228</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I17" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I20" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1901,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5361A2-09E2-481D-B49F-8CE030DE32B3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,6 +2131,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Study for a better life.xlsx
+++ b/Study for a better life.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Desktop\rebirth\Mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrause\Documents\CodeMe\Mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F672668-1A25-466E-9BDA-F09E2402EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B4C82-C09D-4BD0-AD37-C70D76B2D9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{EB88ED60-0DE4-4C62-ACAE-70375AA20070}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EB88ED60-0DE4-4C62-ACAE-70375AA20070}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Terms" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Jobs" sheetId="3" r:id="rId4"/>
     <sheet name="Calculations" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="286">
   <si>
     <t>This is to put together working financial formulas</t>
   </si>
@@ -876,9 +873,6 @@
     <t>Supporting firm quality standards through detailed fact-checking, quality control, and rigorous adherence to methodological standards</t>
   </si>
   <si>
-    <t>In an interview Jeff Moore stated that residential and commercial were about 50/50 however which side has a bigger profit margin?</t>
-  </si>
-  <si>
     <t>interviewer</t>
   </si>
   <si>
@@ -892,6 +886,15 @@
   </si>
   <si>
     <t>state of restoration or something</t>
+  </si>
+  <si>
+    <t>In an interview Jeff Moore stated that commercial revenue was 70% of the business</t>
+  </si>
+  <si>
+    <t>job oppurtunity is 50 / 50 residential and commercial</t>
+  </si>
+  <si>
+    <t>70% commercial revenue</t>
   </si>
 </sst>
 </file>
@@ -1919,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CA2D6-07D9-4B87-979F-B37066FF26B3}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,20 +2079,30 @@
     </row>
     <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2135,10 +2148,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
